--- a/biology/Médecine/1364_en_santé_et_médecine/1364_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1364_en_santé_et_médecine/1364_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1364_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1364_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1364 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1364_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1364_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 février[1] : acte de fondation, par Étienne Baujard, bourgeois de la ville, de l'hôtel-Dieu de Villeneuve-le-Roi en Bourgogne, établissement d'abord destiné à recevoir « uniquement les malades indigents de la ville intra-muros, ceux des faubourgs étant exclus », et qui est à l'origine de l'actuel hôpital Roland-Bonnion[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 février : acte de fondation, par Étienne Baujard, bourgeois de la ville, de l'hôtel-Dieu de Villeneuve-le-Roi en Bourgogne, établissement d'abord destiné à recevoir « uniquement les malades indigents de la ville intra-muros, ceux des faubourgs étant exclus », et qui est à l'origine de l'actuel hôpital Roland-Bonnion.
 12 mai : le roi Casimir III de Pologne crée l'académie de Cracovie, institution à laquelle le pape Urbain V accordera le statut de studium generale en 1367, fondant ainsi l'université Jagellonne qui comprendra, dès le début, une faculté de médecine : le Collegium medicum.
-Juillet : le roi Charles V accorde aux écoles d'Angers le statut de studium generale, acte confirmé par le pape Urbain V en 1369 et qui peut être tenu pour fondateur de l'université d'Angers, institution réservée à l'origine à l'enseignement du droit et où celui de la médecine, probablement dispensé avant même le début du XVe siècle[3], ne sera érigé officiellement en faculté de médecine qu'en 1432-1433 par le pape Eugène IV[4].
-Fondation à Prague en Bohême de l'hôpital de la Vierge-Marie-sous-Vyšehrad par Jean Očko de Vlašim, alors évêque d'Olomouc[5].
-Fondation de l'hôpital Saint-Gratien de Caen en Normandie, « à destination des aveugles[6] ».
-Fondation de l'hôpital des pauvres du Pont de Beauvoisin en Savoie, à la frontière du Dauphiné[7].
-Fondation de l'hôpital d'Einville en Lorraine[8].</t>
+Juillet : le roi Charles V accorde aux écoles d'Angers le statut de studium generale, acte confirmé par le pape Urbain V en 1369 et qui peut être tenu pour fondateur de l'université d'Angers, institution réservée à l'origine à l'enseignement du droit et où celui de la médecine, probablement dispensé avant même le début du XVe siècle, ne sera érigé officiellement en faculté de médecine qu'en 1432-1433 par le pape Eugène IV.
+Fondation à Prague en Bohême de l'hôpital de la Vierge-Marie-sous-Vyšehrad par Jean Očko de Vlašim, alors évêque d'Olomouc.
+Fondation de l'hôpital Saint-Gratien de Caen en Normandie, « à destination des aveugles ».
+Fondation de l'hôpital des pauvres du Pont de Beauvoisin en Savoie, à la frontière du Dauphiné.
+Fondation de l'hôpital d'Einville en Lorraine.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1364_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1364_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1364-1368 : Maynus de Maynis[9],[10] (né à une date inconnue), astrologue et médecin français, maître régent à la faculté de médecine de Paris, médecin des Visconti, auteur d'un « Régime de santé » (Regimen sanitatis Magnini Mediolanensis[11]) et d'un « Traité des eaux artificielles » (De aquis artificialibus[12]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1364-1368 : Maynus de Maynis, (né à une date inconnue), astrologue et médecin français, maître régent à la faculté de médecine de Paris, médecin des Visconti, auteur d'un « Régime de santé » (Regimen sanitatis Magnini Mediolanensis) et d'un « Traité des eaux artificielles » (De aquis artificialibus).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1364_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1364_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques de Forli (it) (mort en 1414), médecin et philosophe italien, surtout connu pour son commentaire de l'Ars parva de Galien[13].
-Pietro da Tossignano (mort en 1401[14]), professeur de médecine à Padoue et Bologne, auteur de très nombreux ouvrages largement diffusés, parmi lesquels il faut noter un Traité de la peste, peut-être apocryphe, et un commentaire du Livre pour Mansour de Rhazès[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques de Forli (it) (mort en 1414), médecin et philosophe italien, surtout connu pour son commentaire de l'Ars parva de Galien.
+Pietro da Tossignano (mort en 1401), professeur de médecine à Padoue et Bologne, auteur de très nombreux ouvrages largement diffusés, parmi lesquels il faut noter un Traité de la peste, peut-être apocryphe, et un commentaire du Livre pour Mansour de Rhazès.
 </t>
         </is>
       </c>
